--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2318705\eclipse-workspace\Hackathon_Final_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EEAD98-40BC-41EB-883D-88066B23FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2114C2-9FDC-4204-B662-EF6343E0336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FFC7F0D3-28B7-4885-9267-E1F6F50D429D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">First Search: </t>
   </si>
@@ -118,6 +118,30 @@
   </si>
   <si>
     <t>qweretsysb</t>
+  </si>
+  <si>
+    <t>State:</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Get in touch with sales</t>
+  </si>
+  <si>
+    <t>Needs:</t>
+  </si>
+  <si>
+    <t>Form Submisson Msg:</t>
+  </si>
+  <si>
+    <t>Make talent your competitive advantage</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Values</t>
   </si>
 </sst>
 </file>
@@ -127,16 +151,9 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="\1\-\4"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -159,22 +176,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,20 +225,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,135 +592,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685CD97F-928C-4D0C-A6B6-2340FFE38DB7}">
-  <dimension ref="G7:H21"/>
+  <dimension ref="G6:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="51.90625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G7" s="2" t="s">
+    <row r="6" spans="7:8" s="1" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G8" s="2" t="s">
+    <row r="8" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G9" s="2" t="s">
+    <row r="9" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G10" s="2" t="s">
+    <row r="10" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G11" s="2" t="s">
+    <row r="11" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G12" s="2" t="s">
+    <row r="12" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="7:8" ht="30.5" x14ac:dyDescent="0.5">
-      <c r="G13" s="2" t="s">
+    <row r="13" spans="7:8" ht="37" x14ac:dyDescent="0.45">
+      <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G14" s="2" t="s">
+    <row r="14" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="7">
         <v>7639078121</v>
       </c>
     </row>
-    <row r="15" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G15" s="2" t="s">
+    <row r="15" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G16" s="2" t="s">
+    <row r="16" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G17" s="2" t="s">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G18" s="2" t="s">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G19" s="2" t="s">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="8">
         <v>45295</v>
       </c>
     </row>
-    <row r="20" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G20" s="2" t="s">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="7:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="G21" s="2" t="s">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -3,21 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2318705\eclipse-workspace\Hackathon_Final_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2114C2-9FDC-4204-B662-EF6343E0336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCABE16-49FD-45D2-B891-68E592E40F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FFC7F0D3-28B7-4885-9267-E1F6F50D429D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
   <si>
     <t xml:space="preserve">First Search: </t>
   </si>
@@ -142,6 +146,187 @@
   </si>
   <si>
     <t>Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungarian </t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">French </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese (Brazil) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">German </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukrainian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese (China) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakh </t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>First Course Data</t>
+  </si>
+  <si>
+    <t>Second Course Data</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Languages and Its Count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Levels and Its Count</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Error Message Validation</t>
+  </si>
+  <si>
+    <t>Error Message Displayed</t>
+  </si>
+  <si>
+    <t>Message Validating</t>
+  </si>
+  <si>
+    <t>Meta Front-End Developer Professional Certificate</t>
+  </si>
+  <si>
+    <t>7 months at 6 hours a week</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development</t>
+  </si>
+  <si>
+    <t>10 hours to complete
+3 weeks at 3 hours a week</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>message matched</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
 </sst>
 </file>
@@ -149,9 +334,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="\1\-\4"/>
+    <numFmt numFmtId="164" formatCode="\1\-\4"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +376,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,13 +461,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,16 +792,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685CD97F-928C-4D0C-A6B6-2340FFE38DB7}">
   <dimension ref="G6:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="68" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="51.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="7" max="7" customWidth="true" style="3" width="53.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="51.90625"/>
   </cols>
   <sheetData>
     <row r="6" spans="7:8" s="1" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -762,4 +960,415 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A292802-5B52-4EF6-9946-0737381C69B1}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" style="11" width="8.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="10.54296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="61.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="11" width="34.36328125"/>
+    <col min="5" max="5" customWidth="true" style="11" width="8.7265625"/>
+    <col min="6" max="7" style="11" width="8.7265625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="11" width="8.54296875"/>
+    <col min="9" max="10" style="11" width="8.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="11" width="22.90625"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A94EAE3-F751-4AF1-B785-843199144F28}">
+  <dimension ref="B2:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" style="11" width="8.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="17.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="5.90625"/>
+    <col min="4" max="19" style="11" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s" s="11">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6053B5DB-357B-443D-8E9A-2567D13FDBC1}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" style="11" width="8.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="11.6328125"/>
+    <col min="3" max="19" style="11" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB1D752-9040-4863-A835-3DFC78F37A65}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" style="11" width="8.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="22.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="42.453125"/>
+    <col min="4" max="13" style="11" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="105">
   <si>
     <t xml:space="preserve">First Search: </t>
   </si>
@@ -327,6 +327,36 @@
   </si>
   <si>
     <t>62</t>
+  </si>
+  <si>
+    <t>Python for Data Science, AI &amp; Development</t>
+  </si>
+  <si>
+    <t>25 hours (approximately)</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>263</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s" s="11">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1095,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">

--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="105">
   <si>
     <t xml:space="preserve">First Search: </t>
   </si>
@@ -1125,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
